--- a/Jobshop.xlsx
+++ b/Jobshop.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BC1CB6-1032-44C4-BE7B-B14E3249EA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34E43A-AB6B-4029-975C-AFE4B439C80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32355" yWindow="2790" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="processing_time" sheetId="1" r:id="rId1"/>
-    <sheet name="machine_order" sheetId="2" r:id="rId2"/>
+    <sheet name="processing_time" sheetId="3" r:id="rId1"/>
+    <sheet name="machine_order" sheetId="4" r:id="rId2"/>
+    <sheet name="processing_time_1" sheetId="1" r:id="rId3"/>
+    <sheet name="machine_order_1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -361,11 +363,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AFCDC3-A553-4834-A464-B06EBB4D937E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F878040-38B0-4A08-8C97-5250A1D9A317}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="B2" sqref="B2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,12 +812,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A96A7D-DB38-475F-8BD8-80A431EBDED9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Jobshop.xlsx
+++ b/Jobshop.xlsx
@@ -5,18 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梁哲榕\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34E43A-AB6B-4029-975C-AFE4B439C80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C43D2-A5DC-4873-8AAC-906B5C8E72AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="2790" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="processing_time" sheetId="3" r:id="rId1"/>
-    <sheet name="machine_order" sheetId="4" r:id="rId2"/>
-    <sheet name="processing_time_1" sheetId="1" r:id="rId3"/>
-    <sheet name="machine_order_1" sheetId="2" r:id="rId4"/>
+    <sheet name="machine_order" sheetId="3" r:id="rId1"/>
+    <sheet name="processing_time" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,23 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
-  <si>
-    <t>Job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -363,147 +344,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AFCDC3-A553-4834-A464-B06EBB4D937E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>2</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F878040-38B0-4A08-8C97-5250A1D9A317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,359 +614,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A96A7D-DB38-475F-8BD8-80A431EBDED9}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>